--- a/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW8.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW8.xlsx
@@ -3105,37 +3105,37 @@
         <v>79.0</v>
       </c>
       <c r="B80" t="n">
-        <v>5.059680912545994</v>
+        <v>0.0</v>
       </c>
       <c r="C80" t="n">
-        <v>4.816071507969997</v>
+        <v>0.0</v>
       </c>
       <c r="D80" t="n">
-        <v>5.046137472888708</v>
+        <v>0.0</v>
       </c>
       <c r="E80" t="n">
-        <v>4.256360697708392</v>
+        <v>0.0</v>
       </c>
       <c r="F80" t="n">
-        <v>5.059680912545994</v>
+        <v>0.0</v>
       </c>
       <c r="G80" t="n">
-        <v>4.816071507969997</v>
+        <v>0.0</v>
       </c>
       <c r="H80" t="n">
-        <v>5.046137472888708</v>
+        <v>0.0</v>
       </c>
       <c r="I80" t="n">
-        <v>4.256360697708392</v>
+        <v>0.0</v>
       </c>
       <c r="J80" t="n">
-        <v>5.059680912545994</v>
+        <v>0.0</v>
       </c>
       <c r="K80" t="n">
-        <v>4.816071507969997</v>
+        <v>0.0</v>
       </c>
       <c r="L80" t="n">
-        <v>5.046137472888708</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="81">
@@ -6677,37 +6677,37 @@
         <v>173.0</v>
       </c>
       <c r="B174" t="n">
-        <v>2.4328802357893364</v>
+        <v>0.0</v>
       </c>
       <c r="C174" t="n">
-        <v>2.4920353400863156</v>
+        <v>0.0</v>
       </c>
       <c r="D174" t="n">
-        <v>2.456178713867649</v>
+        <v>0.0</v>
       </c>
       <c r="E174" t="n">
-        <v>2.2207384568569157</v>
+        <v>0.0</v>
       </c>
       <c r="F174" t="n">
-        <v>2.4328802357893364</v>
+        <v>0.0</v>
       </c>
       <c r="G174" t="n">
-        <v>2.4920353400863156</v>
+        <v>0.0</v>
       </c>
       <c r="H174" t="n">
-        <v>2.456178713867649</v>
+        <v>0.0</v>
       </c>
       <c r="I174" t="n">
-        <v>2.2207384568569157</v>
+        <v>0.0</v>
       </c>
       <c r="J174" t="n">
-        <v>2.4328802357893364</v>
+        <v>0.0</v>
       </c>
       <c r="K174" t="n">
-        <v>2.4920353400863156</v>
+        <v>0.0</v>
       </c>
       <c r="L174" t="n">
-        <v>2.456178713867649</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="175">
@@ -10173,37 +10173,37 @@
         <v>265.0</v>
       </c>
       <c r="B266" t="n">
-        <v>0.2524760162159863</v>
+        <v>0.0</v>
       </c>
       <c r="C266" t="n">
-        <v>0.24927756419389208</v>
+        <v>0.0</v>
       </c>
       <c r="D266" t="n">
-        <v>0.2579361060002774</v>
+        <v>0.0</v>
       </c>
       <c r="E266" t="n">
-        <v>0.21642451380307284</v>
+        <v>0.0</v>
       </c>
       <c r="F266" t="n">
-        <v>0.2524760162159863</v>
+        <v>0.0</v>
       </c>
       <c r="G266" t="n">
-        <v>0.24927756419389208</v>
+        <v>0.0</v>
       </c>
       <c r="H266" t="n">
-        <v>0.2579361060002774</v>
+        <v>0.0</v>
       </c>
       <c r="I266" t="n">
-        <v>0.21642451380307284</v>
+        <v>0.0</v>
       </c>
       <c r="J266" t="n">
-        <v>0.2524760162159863</v>
+        <v>0.0</v>
       </c>
       <c r="K266" t="n">
-        <v>0.24927756419389208</v>
+        <v>0.0</v>
       </c>
       <c r="L266" t="n">
-        <v>0.2579361060002774</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="267">
@@ -12719,37 +12719,37 @@
         <v>332.0</v>
       </c>
       <c r="B333" t="n">
-        <v>2.0168453103177413</v>
+        <v>0.0</v>
       </c>
       <c r="C333" t="n">
-        <v>1.9158242894256785</v>
+        <v>0.0</v>
       </c>
       <c r="D333" t="n">
-        <v>1.9146791456520733</v>
+        <v>0.0</v>
       </c>
       <c r="E333" t="n">
-        <v>1.7168824743641735</v>
+        <v>0.0</v>
       </c>
       <c r="F333" t="n">
-        <v>2.0168453103177413</v>
+        <v>0.0</v>
       </c>
       <c r="G333" t="n">
-        <v>1.9158242894256785</v>
+        <v>0.0</v>
       </c>
       <c r="H333" t="n">
-        <v>1.9146791456520733</v>
+        <v>0.0</v>
       </c>
       <c r="I333" t="n">
-        <v>1.7168824743641735</v>
+        <v>0.0</v>
       </c>
       <c r="J333" t="n">
-        <v>2.0168453103177413</v>
+        <v>0.0</v>
       </c>
       <c r="K333" t="n">
-        <v>1.9158242894256785</v>
+        <v>0.0</v>
       </c>
       <c r="L333" t="n">
-        <v>1.9146791456520733</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="334">
@@ -13061,37 +13061,37 @@
         <v>341.0</v>
       </c>
       <c r="B342" t="n">
-        <v>1.5040760462086797</v>
+        <v>0.0</v>
       </c>
       <c r="C342" t="n">
-        <v>1.828222753377257</v>
+        <v>0.0</v>
       </c>
       <c r="D342" t="n">
-        <v>1.7331243892547399</v>
+        <v>0.0</v>
       </c>
       <c r="E342" t="n">
-        <v>1.511297293058047</v>
+        <v>0.0</v>
       </c>
       <c r="F342" t="n">
-        <v>1.5040760462086797</v>
+        <v>0.0</v>
       </c>
       <c r="G342" t="n">
-        <v>1.828222753377257</v>
+        <v>0.0</v>
       </c>
       <c r="H342" t="n">
-        <v>1.7331243892547399</v>
+        <v>0.0</v>
       </c>
       <c r="I342" t="n">
-        <v>1.511297293058047</v>
+        <v>0.0</v>
       </c>
       <c r="J342" t="n">
-        <v>1.5040760462086797</v>
+        <v>0.0</v>
       </c>
       <c r="K342" t="n">
-        <v>1.828222753377257</v>
+        <v>0.0</v>
       </c>
       <c r="L342" t="n">
-        <v>1.7331243892547399</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="343">
@@ -15265,37 +15265,37 @@
         <v>399.0</v>
       </c>
       <c r="B400" t="n">
-        <v>0.7187608569853587</v>
+        <v>0.0</v>
       </c>
       <c r="C400" t="n">
-        <v>0.6936398464775374</v>
+        <v>0.0</v>
       </c>
       <c r="D400" t="n">
-        <v>0.8614122934023877</v>
+        <v>0.0</v>
       </c>
       <c r="E400" t="n">
-        <v>0.7875745155321991</v>
+        <v>0.0</v>
       </c>
       <c r="F400" t="n">
-        <v>0.7187608569853587</v>
+        <v>0.0</v>
       </c>
       <c r="G400" t="n">
-        <v>0.6936398464775374</v>
+        <v>0.0</v>
       </c>
       <c r="H400" t="n">
-        <v>0.8614122934023877</v>
+        <v>0.0</v>
       </c>
       <c r="I400" t="n">
-        <v>0.7875745155321991</v>
+        <v>0.0</v>
       </c>
       <c r="J400" t="n">
-        <v>0.7187608569853587</v>
+        <v>0.0</v>
       </c>
       <c r="K400" t="n">
-        <v>0.6936398464775374</v>
+        <v>0.0</v>
       </c>
       <c r="L400" t="n">
-        <v>0.8614122934023877</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="401">
@@ -16025,37 +16025,37 @@
         <v>419.0</v>
       </c>
       <c r="B420" t="n">
-        <v>4.781181679346107</v>
+        <v>0.0</v>
       </c>
       <c r="C420" t="n">
-        <v>5.729318233155191</v>
+        <v>0.0</v>
       </c>
       <c r="D420" t="n">
-        <v>4.749295549890132</v>
+        <v>0.0</v>
       </c>
       <c r="E420" t="n">
-        <v>4.811823034946454</v>
+        <v>0.0</v>
       </c>
       <c r="F420" t="n">
-        <v>4.781181679346107</v>
+        <v>0.0</v>
       </c>
       <c r="G420" t="n">
-        <v>5.729318233155191</v>
+        <v>0.0</v>
       </c>
       <c r="H420" t="n">
-        <v>4.749295549890132</v>
+        <v>0.0</v>
       </c>
       <c r="I420" t="n">
-        <v>4.811823034946454</v>
+        <v>0.0</v>
       </c>
       <c r="J420" t="n">
-        <v>4.781181679346107</v>
+        <v>0.0</v>
       </c>
       <c r="K420" t="n">
-        <v>5.729318233155191</v>
+        <v>0.0</v>
       </c>
       <c r="L420" t="n">
-        <v>4.749295549890132</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="421">
@@ -18989,37 +18989,37 @@
         <v>497.0</v>
       </c>
       <c r="B498" t="n">
-        <v>0.8307433062733406</v>
+        <v>0.0</v>
       </c>
       <c r="C498" t="n">
-        <v>0.8144287726078268</v>
+        <v>0.0</v>
       </c>
       <c r="D498" t="n">
-        <v>0.9419318185205586</v>
+        <v>0.0</v>
       </c>
       <c r="E498" t="n">
-        <v>0.9169023818616086</v>
+        <v>0.0</v>
       </c>
       <c r="F498" t="n">
-        <v>0.8307433062733406</v>
+        <v>0.0</v>
       </c>
       <c r="G498" t="n">
-        <v>0.8144287726078268</v>
+        <v>0.0</v>
       </c>
       <c r="H498" t="n">
-        <v>0.9419318185205586</v>
+        <v>0.0</v>
       </c>
       <c r="I498" t="n">
-        <v>0.9169023818616086</v>
+        <v>0.0</v>
       </c>
       <c r="J498" t="n">
-        <v>0.8307433062733406</v>
+        <v>0.0</v>
       </c>
       <c r="K498" t="n">
-        <v>0.8144287726078268</v>
+        <v>0.0</v>
       </c>
       <c r="L498" t="n">
-        <v>0.9419318185205586</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="499">
@@ -19825,37 +19825,37 @@
         <v>519.0</v>
       </c>
       <c r="B520" t="n">
-        <v>0.9989682054872357</v>
+        <v>0.0</v>
       </c>
       <c r="C520" t="n">
-        <v>1.032082063706768</v>
+        <v>0.0</v>
       </c>
       <c r="D520" t="n">
-        <v>0.8726294025723703</v>
+        <v>0.0</v>
       </c>
       <c r="E520" t="n">
-        <v>1.1127573918270113</v>
+        <v>0.0</v>
       </c>
       <c r="F520" t="n">
-        <v>0.9989682054872357</v>
+        <v>0.0</v>
       </c>
       <c r="G520" t="n">
-        <v>1.032082063706768</v>
+        <v>0.0</v>
       </c>
       <c r="H520" t="n">
-        <v>0.8726294025723703</v>
+        <v>0.0</v>
       </c>
       <c r="I520" t="n">
-        <v>1.1127573918270113</v>
+        <v>0.0</v>
       </c>
       <c r="J520" t="n">
-        <v>0.9989682054872357</v>
+        <v>0.0</v>
       </c>
       <c r="K520" t="n">
-        <v>1.032082063706768</v>
+        <v>0.0</v>
       </c>
       <c r="L520" t="n">
-        <v>0.8726294025723703</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="521">
@@ -20737,37 +20737,37 @@
         <v>543.0</v>
       </c>
       <c r="B544" t="n">
-        <v>4.176536001925406</v>
+        <v>0.0</v>
       </c>
       <c r="C544" t="n">
-        <v>4.301355536401725</v>
+        <v>0.0</v>
       </c>
       <c r="D544" t="n">
-        <v>4.376616727442915</v>
+        <v>0.0</v>
       </c>
       <c r="E544" t="n">
-        <v>4.352848351859689</v>
+        <v>0.0</v>
       </c>
       <c r="F544" t="n">
-        <v>4.176536001925406</v>
+        <v>0.0</v>
       </c>
       <c r="G544" t="n">
-        <v>4.301355536401725</v>
+        <v>0.0</v>
       </c>
       <c r="H544" t="n">
-        <v>4.376616727442915</v>
+        <v>0.0</v>
       </c>
       <c r="I544" t="n">
-        <v>4.352848351859689</v>
+        <v>0.0</v>
       </c>
       <c r="J544" t="n">
-        <v>4.176536001925406</v>
+        <v>0.0</v>
       </c>
       <c r="K544" t="n">
-        <v>4.301355536401725</v>
+        <v>0.0</v>
       </c>
       <c r="L544" t="n">
-        <v>4.376616727442915</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="545">
@@ -21421,37 +21421,37 @@
         <v>561.0</v>
       </c>
       <c r="B562" t="n">
-        <v>1.5040760462086797</v>
+        <v>0.0</v>
       </c>
       <c r="C562" t="n">
-        <v>1.828222753377257</v>
+        <v>0.0</v>
       </c>
       <c r="D562" t="n">
-        <v>1.7331243892547399</v>
+        <v>0.0</v>
       </c>
       <c r="E562" t="n">
-        <v>1.511297293058047</v>
+        <v>0.0</v>
       </c>
       <c r="F562" t="n">
-        <v>1.5040760462086797</v>
+        <v>0.0</v>
       </c>
       <c r="G562" t="n">
-        <v>1.828222753377257</v>
+        <v>0.0</v>
       </c>
       <c r="H562" t="n">
-        <v>1.7331243892547399</v>
+        <v>0.0</v>
       </c>
       <c r="I562" t="n">
-        <v>1.511297293058047</v>
+        <v>0.0</v>
       </c>
       <c r="J562" t="n">
-        <v>1.5040760462086797</v>
+        <v>0.0</v>
       </c>
       <c r="K562" t="n">
-        <v>1.828222753377257</v>
+        <v>0.0</v>
       </c>
       <c r="L562" t="n">
-        <v>1.7331243892547399</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="563">
@@ -21839,37 +21839,37 @@
         <v>572.0</v>
       </c>
       <c r="B573" t="n">
-        <v>0.25225876351161153</v>
+        <v>0.0</v>
       </c>
       <c r="C573" t="n">
-        <v>0.2360168709409101</v>
+        <v>0.0</v>
       </c>
       <c r="D573" t="n">
-        <v>0.21977755162741963</v>
+        <v>0.0</v>
       </c>
       <c r="E573" t="n">
-        <v>0.2498386486586888</v>
+        <v>0.0</v>
       </c>
       <c r="F573" t="n">
-        <v>0.25225876351161153</v>
+        <v>0.0</v>
       </c>
       <c r="G573" t="n">
-        <v>0.2360168709409101</v>
+        <v>0.0</v>
       </c>
       <c r="H573" t="n">
-        <v>0.21977755162741963</v>
+        <v>0.0</v>
       </c>
       <c r="I573" t="n">
-        <v>0.2498386486586888</v>
+        <v>0.0</v>
       </c>
       <c r="J573" t="n">
-        <v>0.25225876351161153</v>
+        <v>0.0</v>
       </c>
       <c r="K573" t="n">
-        <v>0.2360168709409101</v>
+        <v>0.0</v>
       </c>
       <c r="L573" t="n">
-        <v>0.21977755162741963</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="574">
@@ -23435,37 +23435,37 @@
         <v>614.0</v>
       </c>
       <c r="B615" t="n">
-        <v>1.0312170511040777</v>
+        <v>0.0</v>
       </c>
       <c r="C615" t="n">
-        <v>1.0653998959996962</v>
+        <v>0.0</v>
       </c>
       <c r="D615" t="n">
-        <v>0.9007997594763199</v>
+        <v>0.0</v>
       </c>
       <c r="E615" t="n">
-        <v>1.1486795974997397</v>
+        <v>0.0</v>
       </c>
       <c r="F615" t="n">
-        <v>1.0312170511040777</v>
+        <v>0.0</v>
       </c>
       <c r="G615" t="n">
-        <v>1.0653998959996962</v>
+        <v>0.0</v>
       </c>
       <c r="H615" t="n">
-        <v>0.9007997594763199</v>
+        <v>0.0</v>
       </c>
       <c r="I615" t="n">
-        <v>1.1486795974997397</v>
+        <v>0.0</v>
       </c>
       <c r="J615" t="n">
-        <v>1.0312170511040777</v>
+        <v>0.0</v>
       </c>
       <c r="K615" t="n">
-        <v>1.0653998959996962</v>
+        <v>0.0</v>
       </c>
       <c r="L615" t="n">
-        <v>0.9007997594763199</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="616">
